--- a/job1/D. REGRESI LINIER/Regresi Linier.xlsx
+++ b/job1/D. REGRESI LINIER/Regresi Linier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perkuliahan\Semester 5\Sistem Embedded\Percobaan 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POLINES\1.SEMESTER 5\embed\Sistem-Embedded\job1\D. REGRESI LINIER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32BAE17-2F4A-4AF8-B1B4-7909FD01EB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A4E9B-4003-4030-9332-4875EFB7D1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94B118D4-85DF-4445-9C5A-F750D5A3EA07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94B118D4-85DF-4445-9C5A-F750D5A3EA07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ADC</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>VS</t>
+  </si>
+  <si>
+    <t>3WAY2</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3WAY</c:v>
+                  <c:v>3WAY2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1944,16 +1947,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2015,6 +2018,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E204F89B-2651-423A-8BC0-DF22484B4EA6}" name="Table1" displayName="Table1" ref="G4:J7" totalsRowShown="0">
+  <autoFilter ref="G4:J7" xr:uid="{E204F89B-2651-423A-8BC0-DF22484B4EA6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{791E8B09-F655-43E3-AAED-828713FA8507}" name="ADC"/>
+    <tableColumn id="2" xr3:uid="{A0F6DEA6-DA52-486C-8FB1-E2789CCEFED1}" name="3WAY"/>
+    <tableColumn id="3" xr3:uid="{12E68E57-51D5-42C1-B64D-30944DABB164}" name="VS"/>
+    <tableColumn id="4" xr3:uid="{9FB925C2-349F-4558-9EC6-7FD629A6D9FD}" name="3WAY2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2317,12 +2333,12 @@
   <dimension ref="G4:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>0</v>
       </c>
@@ -2333,10 +2349,10 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>577</v>
       </c>
@@ -2350,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>476</v>
       </c>
@@ -2364,7 +2380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>347</v>
       </c>
@@ -2381,5 +2397,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/job1/D. REGRESI LINIER/Regresi Linier.xlsx
+++ b/job1/D. REGRESI LINIER/Regresi Linier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POLINES\1.SEMESTER 5\embed\Sistem-Embedded\job1\D. REGRESI LINIER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A4E9B-4003-4030-9332-4875EFB7D1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4818EC-E416-4E3D-B9E4-EAB0F7B16943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94B118D4-85DF-4445-9C5A-F750D5A3EA07}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ADC</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>3WAY2</t>
+  </si>
+  <si>
+    <t>kering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium </t>
+  </si>
+  <si>
+    <t>basah</t>
+  </si>
+  <si>
+    <t>KONDISI</t>
   </si>
 </sst>
 </file>
@@ -2033,6 +2045,16 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1159ADE-6E4F-41E7-A3B7-8918CCDD0A97}" name="Table2" displayName="Table2" ref="F4:F7" totalsRowShown="0">
+  <autoFilter ref="F4:F7" xr:uid="{A1159ADE-6E4F-41E7-A3B7-8918CCDD0A97}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{57CA2030-CEFF-4A19-AA6B-ADF8F2C2F453}" name="KONDISI"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2330,15 +2352,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A34799-01B0-466B-A382-4FF37D06A5F8}">
-  <dimension ref="G4:J7"/>
+  <dimension ref="F4:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2380,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
       <c r="G5">
         <v>577</v>
       </c>
@@ -2366,7 +2397,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
       <c r="G6">
         <v>476</v>
       </c>
@@ -2380,7 +2414,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
       <c r="G7">
         <v>347</v>
       </c>
@@ -2397,8 +2434,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>